--- a/08_Trace_Quality_Checker/Results/results_RQ1/CAEX/Quality-Checker-Hallucination-LLAMA3.xlsx
+++ b/08_Trace_Quality_Checker/Results/results_RQ1/CAEX/Quality-Checker-Hallucination-LLAMA3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="43">
   <si>
     <t>File</t>
   </si>
@@ -25,6 +25,12 @@
     <t>Hallucination</t>
   </si>
   <si>
+    <t>2023-02-07 08.04 Test-representations.airdM.xes</t>
+  </si>
+  <si>
+    <t>2023-02-07 09.06 Test-representations.airdM.xes</t>
+  </si>
+  <si>
     <t>2023-02-07 09.17 Test-representations.airdM.xes</t>
   </si>
   <si>
@@ -64,6 +70,21 @@
     <t>2023-02-10 08.43 Test-representations.airdM.xes</t>
   </si>
   <si>
+    <t>2023-02-10 08.50 Test-representations.airdM.xes</t>
+  </si>
+  <si>
+    <t>2023-02-10 08.58 Test-representations.airdM.xes</t>
+  </si>
+  <si>
+    <t>2023-02-10 09.38 Test-representations.airdM.xes</t>
+  </si>
+  <si>
+    <t>2023-02-10 10.09 Test-representations.airdM.xes</t>
+  </si>
+  <si>
+    <t>2023-02-10 10.37 Test-representations.airdM.xes</t>
+  </si>
+  <si>
     <t>internalelement</t>
   </si>
   <si>
@@ -88,13 +109,22 @@
     <t>partnersideb</t>
   </si>
   <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>defaultvalue</t>
+  </si>
+  <si>
     <t>supportedroleclass</t>
-  </si>
-  <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>value</t>
   </si>
   <si>
     <t>refroleclasspath</t>
@@ -470,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,7 +522,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>6.5</v>
@@ -503,10 +533,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -514,10 +544,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -525,10 +555,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C5">
-        <v>0.6470588235294118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -536,10 +566,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -547,10 +577,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C7">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -558,10 +588,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -569,10 +599,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -580,10 +610,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -591,10 +621,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -602,7 +632,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -613,10 +643,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -624,10 +654,10 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C14">
-        <v>1.571428571428571</v>
+        <v>1.230769230769231</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -635,10 +665,10 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C15">
-        <v>0.125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -646,10 +676,10 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C16">
-        <v>0.4666666666666667</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -657,10 +687,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -679,10 +709,10 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C19">
-        <v>1.666666666666667</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -690,10 +720,10 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -701,10 +731,10 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -712,32 +742,32 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C23">
-        <v>5.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24">
-        <v>1.125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -745,10 +775,10 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C25">
-        <v>0.2</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -756,10 +786,10 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C26">
-        <v>0.4615384615384616</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -767,10 +797,10 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -778,10 +808,10 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -789,10 +819,10 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -800,65 +830,65 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C30">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C32">
-        <v>0.8888888888888888</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C33">
-        <v>0.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C34">
-        <v>0.5454545454545454</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -866,10 +896,10 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -877,10 +907,10 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>1.571428571428571</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -888,10 +918,10 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -899,29 +929,29 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C40">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -929,43 +959,43 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C42">
-        <v>0.25</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C43">
-        <v>0.4444444444444444</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -976,10 +1006,10 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -987,10 +1017,10 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -998,65 +1028,65 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C49">
-        <v>11</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C50">
-        <v>1.142857142857143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C51">
-        <v>0.25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C52">
-        <v>0.7333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
         <v>29</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1064,10 +1094,10 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1078,7 +1108,7 @@
         <v>24</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1086,7 +1116,7 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C56">
         <v>0.2</v>
@@ -1097,10 +1127,10 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1108,10 +1138,10 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1119,10 +1149,10 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1130,10 +1160,10 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1141,7 +1171,7 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -1149,13 +1179,13 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C62">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1163,10 +1193,10 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C63">
-        <v>1.75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1174,10 +1204,10 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C64">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1185,10 +1215,10 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C65">
-        <v>1.125</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1196,10 +1226,10 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1207,10 +1237,10 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C67">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1218,10 +1248,10 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1229,32 +1259,32 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C70">
-        <v>3.666666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C71">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1262,10 +1292,10 @@
         <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C72">
-        <v>1.25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1273,10 +1303,10 @@
         <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>1.142857142857143</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1284,10 +1314,10 @@
         <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C74">
-        <v>3.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1295,10 +1325,10 @@
         <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1306,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -1317,7 +1347,7 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -1325,54 +1355,54 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C78">
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C79">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C80">
-        <v>1.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C81">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -1380,24 +1410,24 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1405,10 +1435,10 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1416,76 +1446,76 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C87">
-        <v>4.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C88">
-        <v>1.090909090909091</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C89">
-        <v>1.166666666666667</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C90">
-        <v>0.9444444444444444</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1493,10 +1523,10 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C93">
-        <v>1.333333333333333</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1504,10 +1534,10 @@
         <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1515,10 +1545,10 @@
         <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1526,7 +1556,7 @@
         <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -1534,46 +1564,46 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C97">
-        <v>4.666666666666667</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C98">
-        <v>0.8888888888888888</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C100">
-        <v>1.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1581,10 +1611,10 @@
         <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1592,10 +1622,10 @@
         <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C102">
-        <v>2.75</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1603,10 +1633,10 @@
         <v>13</v>
       </c>
       <c r="B103" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1614,10 +1644,10 @@
         <v>13</v>
       </c>
       <c r="B104" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1625,10 +1655,10 @@
         <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1636,43 +1666,43 @@
         <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C107">
-        <v>4.333333333333333</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C108">
-        <v>1.166666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B109" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C109">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1680,10 +1710,10 @@
         <v>14</v>
       </c>
       <c r="B110" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C110">
-        <v>1.272727272727273</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1691,10 +1721,10 @@
         <v>14</v>
       </c>
       <c r="B111" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>1.090909090909091</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1702,10 +1732,10 @@
         <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1713,10 +1743,10 @@
         <v>14</v>
       </c>
       <c r="B113" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C113">
-        <v>3</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1724,7 +1754,7 @@
         <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -1735,54 +1765,54 @@
         <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B116" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C116">
-        <v>12.5</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B117" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C117">
-        <v>0.9130434782608695</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B118" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C118">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B119" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C119">
-        <v>0.8837209302325582</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1790,10 +1820,10 @@
         <v>15</v>
       </c>
       <c r="B120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C120">
-        <v>1.5</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1801,10 +1831,10 @@
         <v>15</v>
       </c>
       <c r="B121" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C121">
-        <v>0.4</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1812,10 +1842,10 @@
         <v>15</v>
       </c>
       <c r="B122" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C122">
-        <v>2.666666666666667</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1823,10 +1853,10 @@
         <v>15</v>
       </c>
       <c r="B123" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C123">
-        <v>3.75</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1834,10 +1864,10 @@
         <v>15</v>
       </c>
       <c r="B124" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C124">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1845,10 +1875,769 @@
         <v>15</v>
       </c>
       <c r="B125" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>15</v>
+      </c>
+      <c r="B126" t="s">
+        <v>39</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>15</v>
+      </c>
+      <c r="B127" t="s">
+        <v>28</v>
+      </c>
+      <c r="C127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>15</v>
+      </c>
+      <c r="B128" t="s">
+        <v>29</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>15</v>
+      </c>
+      <c r="B129" t="s">
+        <v>30</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>16</v>
+      </c>
+      <c r="B130" t="s">
         <v>23</v>
       </c>
-      <c r="C125">
+      <c r="C130">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>16</v>
+      </c>
+      <c r="B131" t="s">
+        <v>24</v>
+      </c>
+      <c r="C131">
+        <v>1.166666666666667</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>16</v>
+      </c>
+      <c r="B132" t="s">
+        <v>25</v>
+      </c>
+      <c r="C132">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>16</v>
+      </c>
+      <c r="B133" t="s">
+        <v>26</v>
+      </c>
+      <c r="C133">
+        <v>1.272727272727273</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>16</v>
+      </c>
+      <c r="B134" t="s">
+        <v>27</v>
+      </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>16</v>
+      </c>
+      <c r="B135" t="s">
+        <v>41</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>16</v>
+      </c>
+      <c r="B136" t="s">
+        <v>28</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>16</v>
+      </c>
+      <c r="B137" t="s">
+        <v>29</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>16</v>
+      </c>
+      <c r="B138" t="s">
+        <v>30</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>17</v>
+      </c>
+      <c r="B139" t="s">
+        <v>23</v>
+      </c>
+      <c r="C139">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>17</v>
+      </c>
+      <c r="B140" t="s">
+        <v>24</v>
+      </c>
+      <c r="C140">
+        <v>0.9130434782608695</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>17</v>
+      </c>
+      <c r="B141" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>17</v>
+      </c>
+      <c r="B142" t="s">
+        <v>26</v>
+      </c>
+      <c r="C142">
+        <v>0.8837209302325582</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>17</v>
+      </c>
+      <c r="B143" t="s">
+        <v>36</v>
+      </c>
+      <c r="C143">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>17</v>
+      </c>
+      <c r="B144" t="s">
+        <v>40</v>
+      </c>
+      <c r="C144">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>17</v>
+      </c>
+      <c r="B145" t="s">
+        <v>27</v>
+      </c>
+      <c r="C145">
+        <v>2.666666666666667</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>17</v>
+      </c>
+      <c r="B146" t="s">
+        <v>28</v>
+      </c>
+      <c r="C146">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>17</v>
+      </c>
+      <c r="B147" t="s">
+        <v>29</v>
+      </c>
+      <c r="C147">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>17</v>
+      </c>
+      <c r="B148" t="s">
+        <v>30</v>
+      </c>
+      <c r="C148">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>18</v>
+      </c>
+      <c r="B149" t="s">
+        <v>23</v>
+      </c>
+      <c r="C149">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>18</v>
+      </c>
+      <c r="B150" t="s">
+        <v>24</v>
+      </c>
+      <c r="C150">
+        <v>0.5555555555555556</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>18</v>
+      </c>
+      <c r="B151" t="s">
+        <v>36</v>
+      </c>
+      <c r="C151">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>18</v>
+      </c>
+      <c r="B152" t="s">
+        <v>26</v>
+      </c>
+      <c r="C152">
+        <v>0.7333333333333333</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>18</v>
+      </c>
+      <c r="B153" t="s">
+        <v>40</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>18</v>
+      </c>
+      <c r="B154" t="s">
+        <v>27</v>
+      </c>
+      <c r="C154">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>18</v>
+      </c>
+      <c r="B155" t="s">
+        <v>39</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>18</v>
+      </c>
+      <c r="B156" t="s">
+        <v>41</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>18</v>
+      </c>
+      <c r="B157" t="s">
+        <v>28</v>
+      </c>
+      <c r="C157">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>18</v>
+      </c>
+      <c r="B158" t="s">
+        <v>29</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>18</v>
+      </c>
+      <c r="B159" t="s">
+        <v>30</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>19</v>
+      </c>
+      <c r="B160" t="s">
+        <v>23</v>
+      </c>
+      <c r="C160">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>19</v>
+      </c>
+      <c r="B161" t="s">
+        <v>24</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>19</v>
+      </c>
+      <c r="B162" t="s">
+        <v>36</v>
+      </c>
+      <c r="C162">
+        <v>2.166666666666667</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>19</v>
+      </c>
+      <c r="B163" t="s">
+        <v>26</v>
+      </c>
+      <c r="C163">
+        <v>0.6538461538461539</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>19</v>
+      </c>
+      <c r="B164" t="s">
+        <v>40</v>
+      </c>
+      <c r="C164">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>19</v>
+      </c>
+      <c r="B165" t="s">
+        <v>27</v>
+      </c>
+      <c r="C165">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>19</v>
+      </c>
+      <c r="B166" t="s">
+        <v>28</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>19</v>
+      </c>
+      <c r="B167" t="s">
+        <v>29</v>
+      </c>
+      <c r="C167">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>19</v>
+      </c>
+      <c r="B168" t="s">
+        <v>30</v>
+      </c>
+      <c r="C168">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>20</v>
+      </c>
+      <c r="B169" t="s">
+        <v>23</v>
+      </c>
+      <c r="C169">
+        <v>7.666666666666667</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>20</v>
+      </c>
+      <c r="B170" t="s">
+        <v>24</v>
+      </c>
+      <c r="C170">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>20</v>
+      </c>
+      <c r="B171" t="s">
+        <v>36</v>
+      </c>
+      <c r="C171">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>20</v>
+      </c>
+      <c r="B172" t="s">
+        <v>26</v>
+      </c>
+      <c r="C172">
+        <v>0.6829268292682927</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>20</v>
+      </c>
+      <c r="B173" t="s">
+        <v>28</v>
+      </c>
+      <c r="C173">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>20</v>
+      </c>
+      <c r="B174" t="s">
+        <v>29</v>
+      </c>
+      <c r="C174">
+        <v>0.4666666666666667</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>20</v>
+      </c>
+      <c r="B175" t="s">
+        <v>30</v>
+      </c>
+      <c r="C175">
+        <v>0.4666666666666667</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>20</v>
+      </c>
+      <c r="B176" t="s">
+        <v>27</v>
+      </c>
+      <c r="C176">
+        <v>0.8181818181818182</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>21</v>
+      </c>
+      <c r="B177" t="s">
+        <v>23</v>
+      </c>
+      <c r="C177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>21</v>
+      </c>
+      <c r="B178" t="s">
+        <v>24</v>
+      </c>
+      <c r="C178">
+        <v>0.3666666666666666</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>21</v>
+      </c>
+      <c r="B179" t="s">
+        <v>36</v>
+      </c>
+      <c r="C179">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>21</v>
+      </c>
+      <c r="B180" t="s">
+        <v>26</v>
+      </c>
+      <c r="C180">
+        <v>0.3181818181818182</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>21</v>
+      </c>
+      <c r="B181" t="s">
+        <v>40</v>
+      </c>
+      <c r="C181">
+        <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>21</v>
+      </c>
+      <c r="B182" t="s">
+        <v>27</v>
+      </c>
+      <c r="C182">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>21</v>
+      </c>
+      <c r="B183" t="s">
+        <v>28</v>
+      </c>
+      <c r="C183">
+        <v>1.285714285714286</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>21</v>
+      </c>
+      <c r="B184" t="s">
+        <v>29</v>
+      </c>
+      <c r="C184">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>21</v>
+      </c>
+      <c r="B185" t="s">
+        <v>30</v>
+      </c>
+      <c r="C185">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>22</v>
+      </c>
+      <c r="B186" t="s">
+        <v>23</v>
+      </c>
+      <c r="C186">
+        <v>3.666666666666667</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>22</v>
+      </c>
+      <c r="B187" t="s">
+        <v>24</v>
+      </c>
+      <c r="C187">
+        <v>0.3295454545454545</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>22</v>
+      </c>
+      <c r="B188" t="s">
+        <v>36</v>
+      </c>
+      <c r="C188">
+        <v>0.9090909090909091</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>22</v>
+      </c>
+      <c r="B189" t="s">
+        <v>26</v>
+      </c>
+      <c r="C189">
+        <v>0.2700729927007299</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>22</v>
+      </c>
+      <c r="B190" t="s">
+        <v>40</v>
+      </c>
+      <c r="C190">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>22</v>
+      </c>
+      <c r="B191" t="s">
+        <v>27</v>
+      </c>
+      <c r="C191">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>22</v>
+      </c>
+      <c r="B192" t="s">
+        <v>28</v>
+      </c>
+      <c r="C192">
+        <v>0.9545454545454546</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>22</v>
+      </c>
+      <c r="B193" t="s">
+        <v>29</v>
+      </c>
+      <c r="C193">
+        <v>0.1944444444444444</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>22</v>
+      </c>
+      <c r="B194" t="s">
+        <v>30</v>
+      </c>
+      <c r="C194">
+        <v>0.1944444444444444</v>
       </c>
     </row>
   </sheetData>
